--- a/Backups/econ/2020p&l.xlsx
+++ b/Backups/econ/2020p&l.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plaisancem\Documents\cml_code\backend\Backups\econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE2B93-F874-4D6E-A9EB-D98A76BC876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251799AE-0973-4BB8-AB76-6CB5E7810741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CCE37376-5B37-4F61-AB51-8634C6262842}"/>
+    <workbookView xWindow="1035" yWindow="1170" windowWidth="26670" windowHeight="13605" xr2:uid="{CCE37376-5B37-4F61-AB51-8634C6262842}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="144">
   <si>
     <t>Well List:</t>
   </si>
@@ -363,6 +363,111 @@
   </si>
   <si>
     <t>WHITE MARLIN #1</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>WHITTINGTON #1</t>
+  </si>
+  <si>
+    <t>CANNAN #1</t>
+  </si>
+  <si>
+    <t>PALMERAS RANCH PROSPECT</t>
+  </si>
+  <si>
+    <t>DIAL #1</t>
+  </si>
+  <si>
+    <t>DUNKLE #2</t>
+  </si>
+  <si>
+    <t>HABY #1</t>
+  </si>
+  <si>
+    <t>LEARY TRUST #1</t>
+  </si>
+  <si>
+    <t>MCLEAN #1</t>
+  </si>
+  <si>
+    <t>PECAN GROVE #1</t>
+  </si>
+  <si>
+    <t>PRITCHETT #1</t>
+  </si>
+  <si>
+    <t>RIO NUECES #1</t>
+  </si>
+  <si>
+    <t>EXPIRED</t>
+  </si>
+  <si>
+    <t>THOMPSON #1</t>
+  </si>
+  <si>
+    <t>THOMPSON #2</t>
+  </si>
+  <si>
+    <t>TLAPEK #1</t>
+  </si>
+  <si>
+    <t>TRIPLE J #2</t>
+  </si>
+  <si>
+    <t>HUBER #1</t>
+  </si>
+  <si>
+    <t>JOE #1</t>
+  </si>
+  <si>
+    <t>MARGUERITE #1</t>
+  </si>
+  <si>
+    <t>TORTUGA PROSPECT</t>
+  </si>
+  <si>
+    <t>MARPICK #1</t>
+  </si>
+  <si>
+    <t>PICKENS 2H</t>
+  </si>
+  <si>
+    <t>MONTEMAYOR #1</t>
+  </si>
+  <si>
+    <t>WEST BRUNDAGE PROSPECT</t>
+  </si>
+  <si>
+    <t>BRANTON #1</t>
+  </si>
+  <si>
+    <t>MDB #1</t>
+  </si>
+  <si>
+    <t>THUSS #1</t>
+  </si>
+  <si>
+    <t>CR 201</t>
+  </si>
+  <si>
+    <t>CR 301</t>
+  </si>
+  <si>
+    <t>CR 501</t>
+  </si>
+  <si>
+    <t>CR 302</t>
+  </si>
+  <si>
+    <t>FMMP</t>
+  </si>
+  <si>
+    <t>DMZ BLOCK B</t>
+  </si>
+  <si>
+    <t>BMMP</t>
   </si>
 </sst>
 </file>
@@ -742,13 +847,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D082985D-B34E-4598-BC48-05B1335ADEAB}">
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="W90" sqref="W90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -5708,6 +5819,1766 @@
         <v>-26590.14</v>
       </c>
     </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="3">
+        <v>3855.0129999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.76597656000000003</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="4">
+        <v>5792.08</v>
+      </c>
+      <c r="I81" s="1">
+        <v>871.39</v>
+      </c>
+      <c r="J81" s="4">
+        <v>2072.89</v>
+      </c>
+      <c r="K81" s="4">
+        <v>2068.5700000000002</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1506.06</v>
+      </c>
+      <c r="M81" s="4">
+        <v>2025.38</v>
+      </c>
+      <c r="N81" s="4">
+        <v>-4877.9399999999996</v>
+      </c>
+      <c r="O81" s="1">
+        <v>-649.51</v>
+      </c>
+      <c r="P81" s="4">
+        <v>3612.22</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>276.70999999999998</v>
+      </c>
+      <c r="R81" s="4">
+        <v>-2206.13</v>
+      </c>
+      <c r="S81" s="1">
+        <v>873.78</v>
+      </c>
+      <c r="T81" s="4">
+        <v>11365.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="3">
+        <v>3850.0010000000002</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.80003332999999999</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="4">
+        <v>26118.560000000001</v>
+      </c>
+      <c r="I82" s="4">
+        <v>25741.91</v>
+      </c>
+      <c r="J82" s="4">
+        <v>-4258.13</v>
+      </c>
+      <c r="K82" s="4">
+        <v>-2551.64</v>
+      </c>
+      <c r="L82" s="4">
+        <v>-14215.78</v>
+      </c>
+      <c r="M82" s="4">
+        <v>25106.61</v>
+      </c>
+      <c r="N82" s="4">
+        <v>2409.98</v>
+      </c>
+      <c r="O82" s="4">
+        <v>3625.05</v>
+      </c>
+      <c r="P82" s="4">
+        <v>18486.73</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>3244.43</v>
+      </c>
+      <c r="R82" s="4">
+        <v>10479.66</v>
+      </c>
+      <c r="S82" s="1">
+        <v>-817</v>
+      </c>
+      <c r="T82" s="4">
+        <v>93370.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3850.0239999999999</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.74512756000000002</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="4">
+        <v>10552.39</v>
+      </c>
+      <c r="I83" s="4">
+        <v>-2942.47</v>
+      </c>
+      <c r="J83" s="4">
+        <v>-2425.81</v>
+      </c>
+      <c r="K83" s="4">
+        <v>-1216.1199999999999</v>
+      </c>
+      <c r="L83" s="4">
+        <v>-2557.6999999999998</v>
+      </c>
+      <c r="M83" s="4">
+        <v>-2193.69</v>
+      </c>
+      <c r="N83" s="4">
+        <v>-2798.67</v>
+      </c>
+      <c r="O83" s="4">
+        <v>-2435.9899999999998</v>
+      </c>
+      <c r="P83" s="4">
+        <v>1679.49</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>1224.8599999999999</v>
+      </c>
+      <c r="R83" s="4">
+        <v>-3588.5</v>
+      </c>
+      <c r="S83" s="4">
+        <v>4898.8599999999997</v>
+      </c>
+      <c r="T83" s="4">
+        <v>-1803.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3850.0259999999998</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.76594945999999997</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="4">
+        <v>40844.04</v>
+      </c>
+      <c r="I84" s="4">
+        <v>27261.77</v>
+      </c>
+      <c r="J84" s="4">
+        <v>7137.76</v>
+      </c>
+      <c r="K84" s="4">
+        <v>5905.28</v>
+      </c>
+      <c r="L84" s="4">
+        <v>-1216.97</v>
+      </c>
+      <c r="M84" s="4">
+        <v>22755.439999999999</v>
+      </c>
+      <c r="N84" s="4">
+        <v>-2167.7399999999998</v>
+      </c>
+      <c r="O84" s="4">
+        <v>9632.5499999999993</v>
+      </c>
+      <c r="P84" s="4">
+        <v>-15940.76</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>4162.5600000000004</v>
+      </c>
+      <c r="R84" s="4">
+        <v>5227.53</v>
+      </c>
+      <c r="S84" s="4">
+        <v>7165.14</v>
+      </c>
+      <c r="T84" s="4">
+        <v>110766.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3850.02</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.76444833000000001</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1">
+        <v>-135</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-210</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="K85" s="1">
+        <v>-272.5</v>
+      </c>
+      <c r="L85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="M85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="N85" s="1">
+        <v>-334.62</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="P85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>-374.22</v>
+      </c>
+      <c r="R85" s="1">
+        <v>-996.4</v>
+      </c>
+      <c r="S85" s="1">
+        <v>-60</v>
+      </c>
+      <c r="T85" s="4">
+        <v>-2682.74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3850.011</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.7629494</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="4">
+        <v>4254.66</v>
+      </c>
+      <c r="I86" s="4">
+        <v>9945.16</v>
+      </c>
+      <c r="J86" s="1">
+        <v>742.22</v>
+      </c>
+      <c r="K86" s="1">
+        <v>518.54</v>
+      </c>
+      <c r="L86" s="1">
+        <v>-271.44</v>
+      </c>
+      <c r="M86" s="4">
+        <v>1150.25</v>
+      </c>
+      <c r="N86" s="1">
+        <v>-80.33</v>
+      </c>
+      <c r="O86" s="4">
+        <v>2205.73</v>
+      </c>
+      <c r="P86" s="4">
+        <v>14810.16</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>6386.08</v>
+      </c>
+      <c r="R86" s="1">
+        <v>650.78</v>
+      </c>
+      <c r="S86" s="4">
+        <v>2290.7399999999998</v>
+      </c>
+      <c r="T86" s="4">
+        <v>42602.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="3">
+        <v>3850.0079999999998</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.72670000000000001</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="4">
+        <v>4455.08</v>
+      </c>
+      <c r="I87" s="4">
+        <v>3279.39</v>
+      </c>
+      <c r="J87" s="1">
+        <v>187.38</v>
+      </c>
+      <c r="K87" s="4">
+        <v>-3087.94</v>
+      </c>
+      <c r="L87" s="4">
+        <v>-1754.57</v>
+      </c>
+      <c r="M87" s="4">
+        <v>4243.6400000000003</v>
+      </c>
+      <c r="N87" s="4">
+        <v>-3793.81</v>
+      </c>
+      <c r="O87" s="4">
+        <v>-19762.150000000001</v>
+      </c>
+      <c r="P87" s="4">
+        <v>-1221.8399999999999</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>6163.07</v>
+      </c>
+      <c r="R87" s="4">
+        <v>5552.77</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T87" s="4">
+        <v>-5738.97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3855.009</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.74952962999999995</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="4">
+        <v>-16709.13</v>
+      </c>
+      <c r="I88" s="4">
+        <v>4842.78</v>
+      </c>
+      <c r="J88" s="4">
+        <v>-19095.47</v>
+      </c>
+      <c r="K88" s="4">
+        <v>-8527.15</v>
+      </c>
+      <c r="L88" s="4">
+        <v>-9305.59</v>
+      </c>
+      <c r="M88" s="1">
+        <v>-980.84</v>
+      </c>
+      <c r="N88" s="4">
+        <v>-16080.53</v>
+      </c>
+      <c r="O88" s="4">
+        <v>-9569.4500000000007</v>
+      </c>
+      <c r="P88" s="4">
+        <v>6810.25</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>-6530.34</v>
+      </c>
+      <c r="R88" s="4">
+        <v>-6688.14</v>
+      </c>
+      <c r="S88" s="4">
+        <v>-7515.47</v>
+      </c>
+      <c r="T88" s="4">
+        <v>-89349.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" s="3">
+        <v>3850.0189999999998</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.77579346999999999</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="1">
+        <v>-487</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-150</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" s="4">
+        <v>-1497.9</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T89" s="4">
+        <v>-2134.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3850.0219999999999</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.78733335999999998</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="3">
+        <v>3850.0030000000002</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.77920233999999999</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="4">
+        <v>6809.28</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1347.02</v>
+      </c>
+      <c r="J91" s="4">
+        <v>-2104.85</v>
+      </c>
+      <c r="K91" s="4">
+        <v>-3871.13</v>
+      </c>
+      <c r="L91" s="4">
+        <v>-10042.280000000001</v>
+      </c>
+      <c r="M91" s="4">
+        <v>-1990.84</v>
+      </c>
+      <c r="N91" s="4">
+        <v>-10058.709999999999</v>
+      </c>
+      <c r="O91" s="4">
+        <v>-20996.799999999999</v>
+      </c>
+      <c r="P91" s="4">
+        <v>-3828.19</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>-3745.55</v>
+      </c>
+      <c r="R91" s="4">
+        <v>-1299.9100000000001</v>
+      </c>
+      <c r="S91" s="4">
+        <v>-1635.44</v>
+      </c>
+      <c r="T91" s="4">
+        <v>-51417.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3850.0050000000001</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.74512940999999999</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="4">
+        <v>9045.68</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1734.04</v>
+      </c>
+      <c r="J92" s="4">
+        <v>1257.3699999999999</v>
+      </c>
+      <c r="K92" s="4">
+        <v>-3133.8</v>
+      </c>
+      <c r="L92" s="1">
+        <v>-28.47</v>
+      </c>
+      <c r="M92" s="1">
+        <v>-406.27</v>
+      </c>
+      <c r="N92" s="4">
+        <v>-1737.75</v>
+      </c>
+      <c r="O92" s="4">
+        <v>4638.29</v>
+      </c>
+      <c r="P92" s="4">
+        <v>3693.84</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>-4879.4399999999996</v>
+      </c>
+      <c r="R92" s="4">
+        <v>-1190.8800000000001</v>
+      </c>
+      <c r="S92" s="4">
+        <v>-5265.24</v>
+      </c>
+      <c r="T92" s="4">
+        <v>3727.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="3">
+        <v>3850.0120000000002</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.74985020000000002</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="4">
+        <v>1059.72</v>
+      </c>
+      <c r="I93" s="1">
+        <v>953.82</v>
+      </c>
+      <c r="J93" s="4">
+        <v>-3669.2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>-2667.11</v>
+      </c>
+      <c r="L93" s="4">
+        <v>-3046.32</v>
+      </c>
+      <c r="M93" s="4">
+        <v>1244.18</v>
+      </c>
+      <c r="N93" s="4">
+        <v>-3415.07</v>
+      </c>
+      <c r="O93" s="4">
+        <v>-4503.8900000000003</v>
+      </c>
+      <c r="P93" s="1">
+        <v>-318.41000000000003</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="R93" s="4">
+        <v>-3283.21</v>
+      </c>
+      <c r="S93" s="4">
+        <v>4493.6000000000004</v>
+      </c>
+      <c r="T93" s="4">
+        <v>-12522.58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3850.0059999999999</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.74133298000000003</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="4">
+        <v>2748.32</v>
+      </c>
+      <c r="I94" s="4">
+        <v>2575.4499999999998</v>
+      </c>
+      <c r="J94" s="4">
+        <v>-3526.91</v>
+      </c>
+      <c r="K94" s="4">
+        <v>-1142.97</v>
+      </c>
+      <c r="L94" s="4">
+        <v>-4396.24</v>
+      </c>
+      <c r="M94" s="1">
+        <v>743.68</v>
+      </c>
+      <c r="N94" s="4">
+        <v>-2846.38</v>
+      </c>
+      <c r="O94" s="4">
+        <v>-3231.84</v>
+      </c>
+      <c r="P94" s="4">
+        <v>1448.8</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>5589.63</v>
+      </c>
+      <c r="R94" s="4">
+        <v>1393.29</v>
+      </c>
+      <c r="S94" s="4">
+        <v>-1651.53</v>
+      </c>
+      <c r="T94" s="4">
+        <v>-2296.6999999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95" s="3">
+        <v>3850.0160000000001</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.76444833999999995</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="4">
+        <v>-2954.25</v>
+      </c>
+      <c r="I95" s="4">
+        <v>3748.1</v>
+      </c>
+      <c r="J95" s="4">
+        <v>-2172.79</v>
+      </c>
+      <c r="K95" s="1">
+        <v>-972.6</v>
+      </c>
+      <c r="L95" s="4">
+        <v>-2036.71</v>
+      </c>
+      <c r="M95" s="4">
+        <v>-1821.58</v>
+      </c>
+      <c r="N95" s="4">
+        <v>-1945.64</v>
+      </c>
+      <c r="O95" s="1">
+        <v>-558.44000000000005</v>
+      </c>
+      <c r="P95" s="4">
+        <v>-1318.2</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>-1039.94</v>
+      </c>
+      <c r="R95" s="4">
+        <v>-1790.18</v>
+      </c>
+      <c r="S95" s="4">
+        <v>-3338.75</v>
+      </c>
+      <c r="T95" s="4">
+        <v>-16200.98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3850.0149999999999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.76191149999999996</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="4">
+        <v>-94241.99</v>
+      </c>
+      <c r="I96" s="4">
+        <v>-6395.56</v>
+      </c>
+      <c r="J96" s="4">
+        <v>-20385.939999999999</v>
+      </c>
+      <c r="K96" s="4">
+        <v>-3243.74</v>
+      </c>
+      <c r="L96" s="4">
+        <v>-3085.85</v>
+      </c>
+      <c r="M96" s="1">
+        <v>139.91999999999999</v>
+      </c>
+      <c r="N96" s="4">
+        <v>-4272.83</v>
+      </c>
+      <c r="O96" s="4">
+        <v>1311.42</v>
+      </c>
+      <c r="P96" s="4">
+        <v>4242.37</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>1108.6099999999999</v>
+      </c>
+      <c r="R96" s="4">
+        <v>-4291.07</v>
+      </c>
+      <c r="S96" s="1">
+        <v>-521.16999999999996</v>
+      </c>
+      <c r="T96" s="4">
+        <v>-129635.82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4025.002</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="4">
+        <v>8651.8799999999992</v>
+      </c>
+      <c r="I97" s="4">
+        <v>13207.94</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-521.45000000000005</v>
+      </c>
+      <c r="K97" s="1">
+        <v>-620.37</v>
+      </c>
+      <c r="L97" s="4">
+        <v>-3166.11</v>
+      </c>
+      <c r="M97" s="4">
+        <v>1209.77</v>
+      </c>
+      <c r="N97" s="1">
+        <v>270.05</v>
+      </c>
+      <c r="O97" s="4">
+        <v>-2760.04</v>
+      </c>
+      <c r="P97" s="4">
+        <v>8732.4699999999993</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>-3759.12</v>
+      </c>
+      <c r="R97" s="4">
+        <v>-1578.22</v>
+      </c>
+      <c r="S97" s="4">
+        <v>-3361.4</v>
+      </c>
+      <c r="T97" s="4">
+        <v>16305.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4025.0039999999999</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="4">
+        <v>-15258.11</v>
+      </c>
+      <c r="I98" s="4">
+        <v>6751.16</v>
+      </c>
+      <c r="J98" s="4">
+        <v>-9291.06</v>
+      </c>
+      <c r="K98" s="4">
+        <v>-3445.29</v>
+      </c>
+      <c r="L98" s="4">
+        <v>-2957.85</v>
+      </c>
+      <c r="M98" s="4">
+        <v>-4752.22</v>
+      </c>
+      <c r="N98" s="4">
+        <v>-4797.6099999999997</v>
+      </c>
+      <c r="O98" s="4">
+        <v>-4105.01</v>
+      </c>
+      <c r="P98" s="4">
+        <v>8829.92</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>-2527.71</v>
+      </c>
+      <c r="R98" s="1">
+        <v>-456.36</v>
+      </c>
+      <c r="S98" s="4">
+        <v>2515.9499999999998</v>
+      </c>
+      <c r="T98" s="4">
+        <v>-29494.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4025.0030000000002</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="4">
+        <v>-1350</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T99" s="4">
+        <v>-1350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3925.0010000000002</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.74837109999999996</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="4">
+        <v>2134.98</v>
+      </c>
+      <c r="I100" s="4">
+        <v>-11728.89</v>
+      </c>
+      <c r="J100" s="1">
+        <v>653.73</v>
+      </c>
+      <c r="K100" s="4">
+        <v>-3228.35</v>
+      </c>
+      <c r="L100" s="4">
+        <v>-2091</v>
+      </c>
+      <c r="M100" s="4">
+        <v>-2015.48</v>
+      </c>
+      <c r="N100" s="4">
+        <v>-5001.47</v>
+      </c>
+      <c r="O100" s="4">
+        <v>-3558.75</v>
+      </c>
+      <c r="P100" s="4">
+        <v>-46142.48</v>
+      </c>
+      <c r="Q100" s="4">
+        <v>-2897.39</v>
+      </c>
+      <c r="R100" s="4">
+        <v>1718.94</v>
+      </c>
+      <c r="S100" s="4">
+        <v>4226.28</v>
+      </c>
+      <c r="T100" s="4">
+        <v>-67929.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3855.0050000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.75096222000000001</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-34528.980000000003</v>
+      </c>
+      <c r="I101" s="4">
+        <v>-19759.990000000002</v>
+      </c>
+      <c r="J101" s="4">
+        <v>-33613.4</v>
+      </c>
+      <c r="K101" s="4">
+        <v>-105109.16</v>
+      </c>
+      <c r="L101" s="4">
+        <v>-103617.25</v>
+      </c>
+      <c r="M101" s="4">
+        <v>-24575.87</v>
+      </c>
+      <c r="N101" s="4">
+        <v>-10747.86</v>
+      </c>
+      <c r="O101" s="4">
+        <v>17735.43</v>
+      </c>
+      <c r="P101" s="4">
+        <v>22360.76</v>
+      </c>
+      <c r="Q101" s="4">
+        <v>37831.67</v>
+      </c>
+      <c r="R101" s="4">
+        <v>2348.44</v>
+      </c>
+      <c r="S101" s="4">
+        <v>6864.3</v>
+      </c>
+      <c r="T101" s="4">
+        <v>-244811.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="3">
+        <v>3855.0239999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.75121362000000003</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="4">
+        <v>-8109.49</v>
+      </c>
+      <c r="I102" s="4">
+        <v>-80232.75</v>
+      </c>
+      <c r="J102" s="4">
+        <v>-231827.93</v>
+      </c>
+      <c r="K102" s="4">
+        <v>-177996.57</v>
+      </c>
+      <c r="L102" s="4">
+        <v>15628.89</v>
+      </c>
+      <c r="M102" s="4">
+        <v>10524.17</v>
+      </c>
+      <c r="N102" s="4">
+        <v>10905.03</v>
+      </c>
+      <c r="O102" s="4">
+        <v>112302.33</v>
+      </c>
+      <c r="P102" s="4">
+        <v>133898.26</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>158837.35</v>
+      </c>
+      <c r="R102" s="4">
+        <v>131294.17000000001</v>
+      </c>
+      <c r="S102" s="4">
+        <v>176858.43</v>
+      </c>
+      <c r="T102" s="4">
+        <v>252081.89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="3">
+        <v>3855.0250000000001</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="4">
+        <v>-19521.82</v>
+      </c>
+      <c r="J103" s="4">
+        <v>-68756.17</v>
+      </c>
+      <c r="K103" s="4">
+        <v>-83388.41</v>
+      </c>
+      <c r="L103" s="4">
+        <v>-106910.59</v>
+      </c>
+      <c r="M103" s="4">
+        <v>-30985.79</v>
+      </c>
+      <c r="N103" s="4">
+        <v>-3473.33</v>
+      </c>
+      <c r="O103" s="4">
+        <v>-4563.75</v>
+      </c>
+      <c r="P103" s="4">
+        <v>-3546.97</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>-213.28</v>
+      </c>
+      <c r="R103" s="1">
+        <v>434.21</v>
+      </c>
+      <c r="S103" s="4">
+        <v>3737.89</v>
+      </c>
+      <c r="T103" s="4">
+        <v>-317188.03000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="3">
+        <v>9430.0020000000004</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" s="4">
+        <v>-26091.67</v>
+      </c>
+      <c r="K104" s="4">
+        <v>-45706.91</v>
+      </c>
+      <c r="L104" s="4">
+        <v>-130212.64</v>
+      </c>
+      <c r="M104" s="4">
+        <v>-149758.64000000001</v>
+      </c>
+      <c r="N104" s="4">
+        <v>242329.75</v>
+      </c>
+      <c r="O104" s="4">
+        <v>125706.63</v>
+      </c>
+      <c r="P104" s="4">
+        <v>54070.16</v>
+      </c>
+      <c r="Q104" s="4">
+        <v>18746.96</v>
+      </c>
+      <c r="R104" s="4">
+        <v>30402.33</v>
+      </c>
+      <c r="S104" s="4">
+        <v>68422.12</v>
+      </c>
+      <c r="T104" s="4">
+        <v>187908.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="3">
+        <v>9430.0030000000006</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" s="4">
+        <v>-7202.9</v>
+      </c>
+      <c r="L105" s="4">
+        <v>-35106.65</v>
+      </c>
+      <c r="M105" s="4">
+        <v>-213807.42</v>
+      </c>
+      <c r="N105" s="4">
+        <v>145236.23000000001</v>
+      </c>
+      <c r="O105" s="4">
+        <v>-130630.07</v>
+      </c>
+      <c r="P105" s="4">
+        <v>113138.24000000001</v>
+      </c>
+      <c r="Q105" s="4">
+        <v>70482.78</v>
+      </c>
+      <c r="R105" s="4">
+        <v>61154.27</v>
+      </c>
+      <c r="S105" s="4">
+        <v>86715.32</v>
+      </c>
+      <c r="T105" s="4">
+        <v>89979.79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="3">
+        <v>9430.0049999999992</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" s="1">
+        <v>-128</v>
+      </c>
+      <c r="L106" s="4">
+        <v>-3825.55</v>
+      </c>
+      <c r="M106" s="4">
+        <v>-35338.620000000003</v>
+      </c>
+      <c r="N106" s="4">
+        <v>-147872.34</v>
+      </c>
+      <c r="O106" s="4">
+        <v>-6872.67</v>
+      </c>
+      <c r="P106" s="4">
+        <v>-79820.33</v>
+      </c>
+      <c r="Q106" s="4">
+        <v>-79796.14</v>
+      </c>
+      <c r="R106" s="4">
+        <v>18346.060000000001</v>
+      </c>
+      <c r="S106" s="4">
+        <v>-3418.16</v>
+      </c>
+      <c r="T106" s="4">
+        <v>-338725.74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" s="3">
+        <v>9430.0059999999994</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q107" s="4">
+        <v>-7359.06</v>
+      </c>
+      <c r="R107" s="4">
+        <v>-21088.19</v>
+      </c>
+      <c r="S107" s="4">
+        <v>-71688.09</v>
+      </c>
+      <c r="T107" s="4">
+        <v>-100135.34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="3">
+        <v>9430.0079999999998</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.73129241</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P108" s="4">
+        <v>-9871.65</v>
+      </c>
+      <c r="Q108" s="4">
+        <v>-28324.91</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T108" s="4">
+        <v>-38196.559999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" s="3">
+        <v>9430.009</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
